--- a/Desafio2/Casados/Casados.xlsx
+++ b/Desafio2/Casados/Casados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5390" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5390" uniqueCount="658">
   <si>
     <t>Nome</t>
   </si>
@@ -1974,6 +1974,18 @@
   </si>
   <si>
     <t>Diadema</t>
+  </si>
+  <si>
+    <t>01/08/1979</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>das arvores</t>
+  </si>
+  <si>
+    <t>everton@1234</t>
   </si>
 </sst>
 </file>
@@ -2023,6 +2035,22 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.76171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.24609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.68359375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.89453125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="26.68359375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.10546875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="19.77734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.91015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="16.9921875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="17.0546875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="44.93359375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -18878,90 +18906,90 @@
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>117</v>
+        <v>506</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>50</v>
       </c>
       <c r="E384" s="0" t="s">
-        <v>118</v>
+        <v>507</v>
       </c>
       <c r="F384" s="0" t="s">
-        <v>119</v>
+        <v>508</v>
       </c>
       <c r="G384" s="0" t="s">
         <v>120</v>
       </c>
       <c r="H384" s="0" t="s">
-        <v>121</v>
+        <v>509</v>
       </c>
       <c r="I384" s="0" t="s">
-        <v>122</v>
+        <v>510</v>
       </c>
       <c r="J384" s="0" t="s">
-        <v>123</v>
+        <v>511</v>
       </c>
       <c r="K384" s="0" t="s">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="L384" s="0" t="s">
-        <v>115</v>
+        <v>350</v>
       </c>
       <c r="M384" s="0" t="s">
         <v>108</v>
       </c>
       <c r="N384" s="0" t="s">
-        <v>125</v>
+        <v>512</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="B385" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>127</v>
+        <v>654</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F385" s="0" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G385" s="0" t="s">
-        <v>120</v>
+        <v>655</v>
       </c>
       <c r="H385" s="0" t="s">
-        <v>128</v>
+        <v>565</v>
       </c>
       <c r="I385" s="0" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="J385" s="0" t="s">
-        <v>123</v>
+        <v>656</v>
       </c>
       <c r="K385" s="0" t="s">
-        <v>124</v>
+        <v>567</v>
       </c>
       <c r="L385" s="0" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="M385" s="0" t="s">
         <v>108</v>
       </c>
       <c r="N385" s="0" t="s">
-        <v>130</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
